--- a/data/metadata/Informe-04-040013-A-TC-TM.xlsx
+++ b/data/metadata/Informe-04-040013-A-TC-TM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>ano</t>
   </si>
@@ -61,13 +61,13 @@
     <t>iaest-measure:superficie-de-espacios-naturales-protegidos</t>
   </si>
   <si>
-    <t>iaest-dimension:lugares-de-importancia-comunitaria</t>
-  </si>
-  <si>
-    <t>iaest-measure:municipio-nombre</t>
-  </si>
-  <si>
-    <t>iaest-dimension:espacios-naturales-protegidos</t>
+    <t>iaest-measure:lugares-de-importancia-comunitaria</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:espacios-naturales-protegidos</t>
   </si>
   <si>
     <t>iaest-measure:superficie-lugares-de-importacia-comunitaria</t>
@@ -76,10 +76,7 @@
     <t>iaest-measure:superficie-zonas-de-especial-proteccion-para-las-aves</t>
   </si>
   <si>
-    <t>iaest-dimension:zonas-de-especial-proteccion-para-las-aves</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
+    <t>iaest-measure:zonas-de-especial-proteccion-para-las-aves</t>
   </si>
   <si>
     <t>medida</t>
@@ -94,19 +91,13 @@
     <t>skos:Concept</t>
   </si>
   <si>
+    <t>URI-Municipio</t>
+  </si>
+  <si>
     <t>URI-comarca</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-lugares-de-importancia-comunitaria.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-espacios-naturales-protegidos.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-zonas-de-especial-proteccion-para-las-aves.xlsx</t>
   </si>
 </sst>
 </file>
@@ -242,21 +233,21 @@
         <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -265,63 +256,63 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>27</v>
@@ -330,15 +321,6 @@
     <row r="5">
       <c r="B5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-04-040013-A-TC-TM.xlsx
+++ b/data/metadata/Informe-04-040013-A-TC-TM.xlsx
@@ -11,90 +11,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>superficie-de-espacios-naturales-protegidos</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
-  </si>
-  <si>
-    <t>lugares-de-importancia-comunitaria</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>espacios-naturales-protegidos</t>
-  </si>
-  <si>
-    <t>superficie-lugares-de-importacia-comunitaria</t>
-  </si>
-  <si>
-    <t>superficie-zonas-de-especial-proteccion-para-las-aves</t>
-  </si>
-  <si>
-    <t>zonas-de-especial-proteccion-para-las-aves</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+  <si>
+    <t>Superficie Lugares de Importacia Comunitaria</t>
+  </si>
+  <si>
+    <t>Superficie Zonas de Especial Protección para las Aves</t>
+  </si>
+  <si>
+    <t>Comarca código</t>
+  </si>
+  <si>
+    <t>Municipio nombre</t>
+  </si>
+  <si>
+    <t>Superficie de Espacios Naturales Protegidos</t>
+  </si>
+  <si>
+    <t>Zonas de especial Protección para las Aves</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>Lugares de Importancia Comunitaria</t>
+  </si>
+  <si>
+    <t>CCAA código</t>
+  </si>
+  <si>
+    <t>Espacios Naturales Protegidos</t>
+  </si>
+  <si>
+    <t>Municipio código</t>
+  </si>
+  <si>
+    <t>Año</t>
   </si>
   <si>
     <t>iaest-measure:</t>
   </si>
   <si>
+    <t>iaest-measure:superficie-lugares-de-importacia-comunitaria</t>
+  </si>
+  <si>
+    <t>iaest-measure:superficie-zonas-de-especial-proteccion-para-las-aves</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:superficie-de-espacios-naturales-protegidos</t>
+  </si>
+  <si>
+    <t>iaest-measure:zonas-de-especial-proteccion-para-las-aves</t>
+  </si>
+  <si>
+    <t>iaest-measure:lugares-de-importancia-comunitaria</t>
+  </si>
+  <si>
+    <t>iaest-measure:espacios-naturales-protegidos</t>
+  </si>
+  <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>iaest-measure:superficie-de-espacios-naturales-protegidos</t>
-  </si>
-  <si>
-    <t>iaest-measure:lugares-de-importancia-comunitaria</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:espacios-naturales-protegidos</t>
-  </si>
-  <si>
-    <t>iaest-measure:superficie-lugares-de-importacia-comunitaria</t>
-  </si>
-  <si>
-    <t>iaest-measure:superficie-zonas-de-especial-proteccion-para-las-aves</t>
-  </si>
-  <si>
-    <t>iaest-measure:zonas-de-especial-proteccion-para-las-aves</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>URI-Municipio</t>
+  </si>
+  <si>
     <t>xsd:int</t>
   </si>
   <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
-    <t>URI-Municipio</t>
-  </si>
-  <si>
     <t>URI-comarca</t>
+  </si>
+  <si>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -209,31 +215,31 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -241,19 +247,19 @@
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
@@ -265,13 +271,13 @@
         <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>23</v>
@@ -285,42 +291,42 @@
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="s">
-        <v>28</v>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
